--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/10/seed4/result_data_RandomForest.xlsx
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.541900000000001</v>
+        <v>-7.731600000000001</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.9162</v>
+        <v>-21.9456</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.271200000000001</v>
+        <v>-7.180200000000002</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.1699</v>
+        <v>16.26540000000001</v>
       </c>
     </row>
     <row r="16">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.28900000000002</v>
+        <v>-22.35770000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.59019999999999</v>
+        <v>-19.6457</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.476999999999999</v>
+        <v>-8.667299999999999</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-22.05189999999999</v>
+        <v>-22.0723</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.805999999999997</v>
+        <v>-8.853199999999999</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.343099999999997</v>
+        <v>-7.241400000000001</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.704299999999997</v>
+        <v>-7.6882</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1083,10 +1083,10 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.573200000000003</v>
+        <v>-7.365600000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>16.77469999999999</v>
+        <v>16.72639999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.33419999999999</v>
+        <v>16.3672</v>
       </c>
     </row>
     <row r="45">
@@ -1304,10 +1304,10 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.640999999999998</v>
+        <v>-8.695499999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>16.6304</v>
+        <v>16.28939999999999</v>
       </c>
     </row>
     <row r="52">
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.886799999999999</v>
+        <v>-8.8581</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.6242</v>
+        <v>16.7064</v>
       </c>
     </row>
     <row r="58">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>18.38080000000002</v>
+        <v>18.41470000000001</v>
       </c>
     </row>
     <row r="64">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.62759999999999</v>
+        <v>-21.5872</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.232199999999995</v>
+        <v>-7.155399999999994</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1627,10 +1627,10 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-8.291600000000001</v>
+        <v>-7.565700000000003</v>
       </c>
       <c r="E70" t="n">
-        <v>16.69760000000001</v>
+        <v>17.07540000000001</v>
       </c>
     </row>
     <row r="71">
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.21929999999998</v>
+        <v>-19.88249999999999</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.88220000000001</v>
+        <v>-21.9426</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.935500000000001</v>
+        <v>-9.0062</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.5554</v>
+        <v>16.5182</v>
       </c>
     </row>
     <row r="100">
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.669999999999995</v>
+        <v>-7.7389</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
